--- a/reports/xlsx/3-format.xlsx
+++ b/reports/xlsx/3-format.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="iris" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="dane mtcars" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="kwartet Anscomba" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="kwartet Anscombea" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
